--- a/src/test/resources/Dummy.xlsx
+++ b/src/test/resources/Dummy.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13425" windowHeight="2370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:N5"/>
 </workbook>
 </file>
 
@@ -127,6 +128,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -174,7 +178,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -209,7 +213,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -420,16 +424,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -443,7 +447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -457,7 +461,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -471,7 +475,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -485,7 +489,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -499,7 +503,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -522,16 +526,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -539,7 +543,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,7 +562,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
